--- a/9_bus_input.xlsx
+++ b/9_bus_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\304723\Documents\GitHub\CBC_RD_thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B906ABDF-D876-4B74-8E3B-6FAD411F91EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED5D267-BFF0-408C-86EF-C31FB9D83C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="6" xr2:uid="{4D1B5A0D-1CEB-45D9-8796-95763D14CA6B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="6" xr2:uid="{4D1B5A0D-1CEB-45D9-8796-95763D14CA6B}"/>
   </bookViews>
   <sheets>
     <sheet name="title_page" sheetId="1" r:id="rId1"/>
@@ -184,55 +184,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>480272</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>51162</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1AD92FC-788B-C8A8-4235-619D92F0CE57}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1219200" y="476250"/>
-          <a:ext cx="6068272" cy="2591162"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -538,17 +489,17 @@
       <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="10.1796875" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -556,7 +507,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -564,14 +515,13 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -583,9 +533,9 @@
       <selection activeCell="H13" sqref="H13:H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -602,7 +552,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -619,7 +569,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -636,7 +586,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -653,7 +603,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -670,7 +620,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -687,7 +637,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -704,7 +654,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -721,7 +671,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -738,7 +688,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -755,7 +705,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -772,7 +722,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -789,7 +739,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -806,7 +756,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -823,7 +773,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -853,14 +803,14 @@
       <selection activeCell="C9" sqref="C9:Z9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="26" width="6.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="26" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -940,7 +890,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1020,7 +970,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1100,7 +1050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1180,7 +1130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1260,7 +1210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1340,7 +1290,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="7" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1420,7 +1370,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1500,7 +1450,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="9" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1580,14 +1530,14 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
     </row>
   </sheetData>
@@ -1603,9 +1553,9 @@
       <selection activeCell="C6" sqref="C6:Z11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.26953125" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="3.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="5.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="10" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
@@ -1623,7 +1573,7 @@
     <col min="26" max="26" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -1703,7 +1653,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1783,7 +1733,7 @@
         <v>-12</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1863,7 +1813,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1943,7 +1893,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -1969,7 +1919,7 @@
       <c r="Y6" s="5"/>
       <c r="Z6" s="5"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
@@ -1995,7 +1945,7 @@
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -2031,18 +1981,18 @@
   <dimension ref="A1:Z4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="26" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="26" width="4.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2076,7 +2026,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2087,7 +2037,7 @@
         <v>-1000</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2098,7 +2048,7 @@
         <v>-300</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2122,18 +2072,18 @@
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
     </row>
-    <row r="2" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:1" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
     </row>
   </sheetData>
@@ -2149,20 +2099,20 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="1.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="3"/>
+    <col min="9" max="16384" width="8.7109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" s="3" t="s">
         <v>11</v>
       </c>
@@ -2182,7 +2132,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -2205,7 +2155,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -2228,7 +2178,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -2251,7 +2201,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>3</v>
       </c>
